--- a/report/code/results.xlsx
+++ b/report/code/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="25280" windowHeight="15380" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="25280" windowHeight="15380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="diff" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="75">
   <si>
     <t>serie 1 time</t>
   </si>
@@ -155,9 +155,6 @@
     <t>test (like)-2</t>
   </si>
   <si>
-    <t>test (t-l)serie 1-2</t>
-  </si>
-  <si>
     <t>Mob (time)</t>
   </si>
   <si>
@@ -249,6 +246,12 @@
   </si>
   <si>
     <t>More in second</t>
+  </si>
+  <si>
+    <t>test-(t-l)</t>
+  </si>
+  <si>
+    <t>MovAve</t>
   </si>
 </sst>
 </file>
@@ -1069,11 +1072,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2061366072"/>
-        <c:axId val="2061369048"/>
+        <c:axId val="2092745096"/>
+        <c:axId val="2057371864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2061366072"/>
+        <c:axId val="2092745096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061369048"/>
+        <c:crossAx val="2057371864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1090,7 +1093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2061369048"/>
+        <c:axId val="2057371864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,14 +1104,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061366072"/>
+        <c:crossAx val="2092745096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1243,11 +1245,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2061397400"/>
-        <c:axId val="2061400376"/>
+        <c:axId val="2057319032"/>
+        <c:axId val="2057383400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2061397400"/>
+        <c:axId val="2057319032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1256,7 +1258,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061400376"/>
+        <c:crossAx val="2057383400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1264,7 +1266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2061400376"/>
+        <c:axId val="2057383400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061397400"/>
+        <c:crossAx val="2057319032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1312,7 +1314,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0411188338458902"/>
+          <c:y val="0.0240388605434501"/>
+          <c:w val="0.77931647449752"/>
+          <c:h val="0.904799996971482"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1325,7 +1337,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>test (t-l)serie 1-2</c:v>
+                  <c:v>test-(t-l)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1662,7 +1674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MoyMob</c:v>
+                  <c:v>MovAve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1994,11 +2006,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2060137016"/>
-        <c:axId val="2060139992"/>
+        <c:axId val="2061784040"/>
+        <c:axId val="2061787016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2060137016"/>
+        <c:axId val="2061784040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2060139992"/>
+        <c:crossAx val="2061787016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2015,7 +2027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2060139992"/>
+        <c:axId val="2061787016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,13 +2038,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2060137016"/>
+        <c:crossAx val="2061784040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2433,11 +2446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2060169288"/>
-        <c:axId val="2060172264"/>
+        <c:axId val="2061969256"/>
+        <c:axId val="2058364024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2060169288"/>
+        <c:axId val="2061969256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2060172264"/>
+        <c:crossAx val="2058364024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2454,7 +2467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2060172264"/>
+        <c:axId val="2058364024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,13 +2478,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2060169288"/>
+        <c:crossAx val="2061969256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3177,11 +3191,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2060213640"/>
-        <c:axId val="2060216616"/>
+        <c:axId val="2061954648"/>
+        <c:axId val="2061957624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2060213640"/>
+        <c:axId val="2061954648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2060216616"/>
+        <c:crossAx val="2061957624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3198,7 +3212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2060216616"/>
+        <c:axId val="2061957624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3209,7 +3223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2060213640"/>
+        <c:crossAx val="2061954648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3622,11 +3636,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2061453320"/>
-        <c:axId val="2061456296"/>
+        <c:axId val="2090425928"/>
+        <c:axId val="2090428616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2061453320"/>
+        <c:axId val="2090425928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,7 +3649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061456296"/>
+        <c:crossAx val="2090428616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3643,7 +3657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2061456296"/>
+        <c:axId val="2090428616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3654,7 +3668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2061453320"/>
+        <c:crossAx val="2090425928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3744,16 +3758,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>156096</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>105296</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4829,10 +4843,10 @@
     <row r="22" spans="1:9" ht="18">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -4846,7 +4860,7 @@
     </row>
     <row r="23" spans="1:9" ht="18">
       <c r="B23" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="5">
         <f>G10*100</f>
@@ -4870,7 +4884,7 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="B24" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <f>R11*100</f>
@@ -7922,7 +7936,7 @@
         <v>4.1300936000000003E-2</v>
       </c>
       <c r="H99">
-        <f t="shared" ref="H99:H130" si="3">AVERAGE(A99:G99)</f>
+        <f t="shared" ref="H99:H103" si="3">AVERAGE(A99:G99)</f>
         <v>2.7380613285714287E-2</v>
       </c>
       <c r="J99">
@@ -8057,8 +8071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8104,19 +8118,19 @@
         <v>40</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -13132,7 +13146,7 @@
         <v>17</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -14383,7 +14397,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H66" si="2">AVERAGE(A35:G35)</f>
+        <f t="shared" ref="H35:H52" si="2">AVERAGE(A35:G35)</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="K35">
@@ -16175,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f t="shared" ref="H86:H117" si="6">AVERAGE(A86:G86)</f>
+        <f t="shared" ref="H86:H104" si="6">AVERAGE(A86:G86)</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="Q86">
@@ -16857,16 +16871,16 @@
         <v>25</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -20801,7 +20815,7 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -20822,40 +20836,40 @@
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1" ht="48">
       <c r="A1" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="M1" s="15"/>
     </row>
@@ -20891,7 +20905,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="14" t="s">
@@ -20930,7 +20944,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="14" t="s">
@@ -20969,7 +20983,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="14" t="s">
@@ -21008,7 +21022,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="14" t="s">
@@ -21047,7 +21061,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="14" t="s">
@@ -21065,7 +21079,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -21086,7 +21100,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="14" t="s">
@@ -21125,7 +21139,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="14" t="s">
@@ -21143,7 +21157,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -21164,7 +21178,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="14" t="s">
@@ -21203,7 +21217,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="14" t="s">
@@ -21242,7 +21256,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="14" t="s">
@@ -21281,7 +21295,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="14" t="s">
@@ -21299,7 +21313,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -21320,7 +21334,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="14" t="s">
@@ -21359,7 +21373,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="14" t="s">
@@ -21398,7 +21412,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="14" t="s">
@@ -21437,7 +21451,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="14" t="s">
@@ -21533,43 +21547,43 @@
     </row>
     <row r="23" spans="1:19" ht="80">
       <c r="A23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="F23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="J23" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="L23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="Q23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="R23" s="15" t="s">
-        <v>73</v>
-      </c>
       <c r="S23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16">
@@ -21630,7 +21644,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="E25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <f t="shared" ref="F25:K25" si="2">AVERAGE(E16,E14,E12,E10,E8,E6,E4,E2)</f>
@@ -21695,7 +21709,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="E27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27">
         <f>(G25-F25)/F25</f>
@@ -21713,13 +21727,12 @@
   </sheetData>
   <autoFilter ref="A1:M18">
     <filterColumn colId="12">
-      <filters blank="1">
+      <filters>
         <filter val="time"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/report/code/results.xlsx
+++ b/report/code/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="25280" windowHeight="15380" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="25280" windowHeight="15380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="diff" sheetId="1" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Like</t>
   </si>
   <si>
-    <t>MoyMob</t>
-  </si>
-  <si>
     <t>test (time)-1</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>MovAve</t>
+  </si>
+  <si>
+    <t>test-(l-t)</t>
   </si>
 </sst>
 </file>
@@ -1111,6 +1111,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2529,7 +2530,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>testA</c:v>
+                  <c:v>test-(l-t)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2862,7 +2863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MoyMob</c:v>
+                  <c:v>MovAve</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3230,6 +3231,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3788,15 +3790,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>444499</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>467782</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>518582</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3823,16 +3825,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>825499</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>622299</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>328082</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>175682</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4843,10 +4845,10 @@
     <row r="22" spans="1:9" ht="18">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -4860,7 +4862,7 @@
     </row>
     <row r="23" spans="1:9" ht="18">
       <c r="B23" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="5">
         <f>G10*100</f>
@@ -4884,7 +4886,7 @@
     </row>
     <row r="24" spans="1:9" ht="18">
       <c r="B24" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <f>R11*100</f>
@@ -8071,7 +8073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
@@ -8109,28 +8111,28 @@
         <v>25</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="R1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -13112,8 +13114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13146,15 +13148,15 @@
         <v>17</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -16871,16 +16873,16 @@
         <v>25</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -20836,40 +20838,40 @@
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1" ht="48">
       <c r="A1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="M1" s="15"/>
     </row>
@@ -20905,7 +20907,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="14" t="s">
@@ -20944,7 +20946,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="14" t="s">
@@ -20983,7 +20985,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="14" t="s">
@@ -21022,7 +21024,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="14" t="s">
@@ -21061,7 +21063,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="14" t="s">
@@ -21079,7 +21081,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -21100,7 +21102,7 @@
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="14" t="s">
@@ -21139,7 +21141,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="14" t="s">
@@ -21157,7 +21159,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
@@ -21178,7 +21180,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="14" t="s">
@@ -21217,7 +21219,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="14" t="s">
@@ -21256,7 +21258,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="14" t="s">
@@ -21295,7 +21297,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="14" t="s">
@@ -21313,7 +21315,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1">
         <v>4</v>
@@ -21334,7 +21336,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="14" t="s">
@@ -21373,7 +21375,7 @@
         <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="14" t="s">
@@ -21412,7 +21414,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="14" t="s">
@@ -21451,7 +21453,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="14" t="s">
@@ -21547,43 +21549,43 @@
     </row>
     <row r="23" spans="1:19" ht="80">
       <c r="A23" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>54</v>
-      </c>
       <c r="F23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="H23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="J23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="K23" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="L23" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>62</v>
-      </c>
       <c r="Q23" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="S23" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16">
@@ -21644,7 +21646,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="E25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25">
         <f t="shared" ref="F25:K25" si="2">AVERAGE(E16,E14,E12,E10,E8,E6,E4,E2)</f>
@@ -21709,7 +21711,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="E27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G27">
         <f>(G25-F25)/F25</f>
